--- a/jpcore-r4b/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4b/develop/StructureDefinition-jp-practitioner.xlsx
@@ -784,7 +784,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).
 期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
 期間は、時間間隔（経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
@@ -1307,9 +1307,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).
 使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
-期間は、期間(経過時間の尺度)には使用されない。[Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
+期間は、期間(経過時間の尺度)には使用されない。[Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked.
